--- a/xlsx/泰坦尼克号 (1997年电影)_intext.xlsx
+++ b/xlsx/泰坦尼克号 (1997年电影)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="816">
   <si>
     <t>泰坦尼克号 (1997年电影)</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_泰坦尼克号 (1997年电影)</t>
+    <t>机器翻译</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_泰坦尼克号 (1997年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%9F%AF%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>詹姆斯·柯麥隆</t>
+    <t>詹姆斯·柯麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9D%A6%E5%B0%BC%E5%85%8B%E5%8F%B7_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%89%B9%C2%B7%E6%BA%AB%E6%96%AF%E8%95%BE</t>
   </si>
   <si>
-    <t>凱特·溫斯蕾</t>
+    <t>凯特·温斯蕾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%C2%B7%E8%B4%8A%E6%81%A9</t>
   </si>
   <si>
-    <t>比利·贊恩</t>
+    <t>比利·赞恩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Frances_Fisher</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E7%BE%85%E8%8E%89%C2%B7%E5%8F%B2%E9%83%BD%E8%8F%AF</t>
   </si>
   <si>
-    <t>葛羅莉·史都華</t>
+    <t>葛罗莉·史都华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%B4%BE%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>比爾·派斯頓</t>
+    <t>比尔·派斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%A5%BF%C2%B7%E8%B2%9D%E8%8C%B2</t>
   </si>
   <si>
-    <t>凱西·貝茲</t>
+    <t>凯西·贝兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%C2%B7%E5%8A%AA%E5%A5%87</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%85%8B%E5%A4%9A%C2%B7%E8%B3%88%E5%8D%9A</t>
   </si>
   <si>
-    <t>維克多·賈博</t>
+    <t>维克多·贾博</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%9C%8D%E7%BA%B3</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%B4%80%E7%A6%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>二十世紀福斯</t>
+    <t>二十世纪福斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>派拉蒙電影公司</t>
+    <t>派拉蒙电影公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lightstorm_Entertainment</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%9C%8B%E9%9A%9B%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
   </si>
   <si>
-    <t>東京國際電影節</t>
+    <t>东京国际电影节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A9%A9%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>史詩電影</t>
+    <t>史诗电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%83%85%E7%94%B5%E5%BD%B1</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%BD%E9%9B%A3%E7%89%87</t>
   </si>
   <si>
-    <t>災難片</t>
+    <t>灾难片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9D%A6%E5%B0%BC%E5%85%8B%E5%8F%B7_(1953%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>下加利福尼亞州</t>
+    <t>下加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%96%A9%E9%87%8C%E5%A4%9A</t>
   </si>
   <si>
-    <t>羅薩里多</t>
+    <t>罗萨里多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E6%A8%A1%E5%9E%8B</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%88%90%E5%83%8F</t>
   </si>
   <si>
-    <t>電腦成像</t>
+    <t>电脑成像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC70%E5%B1%86%E5%A5%A7%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E7%8D%8E</t>
   </si>
   <si>
-    <t>第70屆奧斯卡金像獎</t>
+    <t>第70届奥斯卡金像奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%9B%BB%E5%BD%B1%E7%A5%A8%E6%88%BF%E6%94%B6%E5%85%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最高電影票房收入列表</t>
+    <t>最高电影票房收入列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%87%A1%E8%BE%BE</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E8%88%B9</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1</t>
   </si>
   <si>
-    <t>匹茲堡</t>
+    <t>匹兹堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%B8%E9%AB%94</t>
   </si>
   <si>
-    <t>裸體</t>
+    <t>裸体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E6%8F%8F</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B8%95%E8%A5%BF%E4%BA%9E%E8%99%9F</t>
   </si>
   <si>
-    <t>卡帕西亞號</t>
+    <t>卡帕西亚号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1929%E5%B9%B4%E8%8F%AF%E7%88%BE%E8%A1%97%E8%82%A1%E7%81%BD</t>
   </si>
   <si>
-    <t>1929年華爾街股災</t>
+    <t>1929年华尔街股灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E5%BD%92%E6%9D%A5</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%A5%95%E8%BF%85</t>
   </si>
   <si>
-    <t>陳奕迅</t>
+    <t>陈奕迅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B9%E7%A5%96%E5%85%92</t>
   </si>
   <si>
-    <t>容祖兒</t>
+    <t>容祖儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>大衛·華納</t>
+    <t>大卫·华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E8%98%87%E8%A5%BF%C2%B7%E8%89%BE%E7%B1%B3%E6%96%AF%C2%B7%E5%8D%A1%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>蘭蘇西·艾米斯·卡麥隆</t>
+    <t>兰苏西·艾米斯·卡麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%BA%A6%E7%BF%B0%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E7%89%B9%E6%B2%B3%E7%95%94%E6%96%AF%E6%89%98%E5%85%8B</t>
   </si>
   <si>
-    <t>特倫特河畔斯托克</t>
+    <t>特伦特河畔斯托克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hanley,_Staffordshire</t>
@@ -539,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%A7%E5%BC%97%E9%87%8C%E6%96%AF-%E5%8A%A0%E6%B4%9B%E9%9F%8B</t>
   </si>
   <si>
-    <t>鄧弗里斯-加洛韋</t>
+    <t>邓弗里斯-加洛韦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%AA%E6%A2%B0</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%88%A9</t>
   </si>
   <si>
-    <t>喬利</t>
+    <t>乔利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1952%E5%B9%B4%E4%BC%A6%E6%95%A6%E7%83%9F%E9%9B%BE%E4%BA%8B%E4%BB%B6</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E9%BA%BB%E5%AF%A6%E9%83%A1</t>
   </si>
   <si>
-    <t>森麻實郡</t>
+    <t>森麻实郡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Castle_Cary</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%B2%B3%E7%95%94%E4%BA%AC%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>赫爾河畔京士頓</t>
+    <t>赫尔河畔京士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%A0%93</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>北威爾斯</t>
+    <t>北威尔斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conwy_(county_borough)</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8D%A1%E5%B8%83%E7%BE%85</t>
   </si>
   <si>
-    <t>斯卡布羅</t>
+    <t>斯卡布罗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joseph_Bell</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%B0%BC%E6%8B%94</t>
   </si>
   <si>
-    <t>漢尼拔</t>
+    <t>汉尼拔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E5%A0%A1-%E5%A5%A5%E5%85%8B%E7%89%B9%E7%BB%B4%E5%B0%94</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%9B%85%E5%90%84%C2%B7%E9%98%BF%E6%96%AF%E7%89%B9%E5%9B%9B%E4%B8%96</t>
   </si>
   <si>
-    <t>約翰·雅各·阿斯特四世</t>
+    <t>约翰·雅各·阿斯特四世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E5%BE%B7%E7%90%B3%C2%B7%E9%98%BF%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>瑪德琳·阿斯特</t>
+    <t>玛德琳·阿斯特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Archibald_Gracie_IV</t>
@@ -749,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E8%99%9F_(%E6%BD%9B%E6%B0%B4%E8%89%87)</t>
   </si>
   <si>
-    <t>和平號 (潛水艇)</t>
+    <t>和平号 (潜水艇)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%99%E6%8E%A7%E6%BD%9B%E6%B0%B4%E5%99%A8</t>
   </si>
   <si>
-    <t>遙控潛水器</t>
+    <t>遥控潜水器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%AF%86%E6%AC%A7%E4%B8%8E%E6%9C%B1%E4%B8%BD%E5%8F%B6</t>
@@ -767,31 +767,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%87%88_(%E9%9B%BB%E5%BD%B1%E8%A3%BD%E4%BD%9C)</t>
   </si>
   <si>
-    <t>綠燈 (電影製作)</t>
+    <t>绿灯 (电影制作)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E9%87%8D%E6%A9%9F</t>
   </si>
   <si>
-    <t>起重機</t>
+    <t>起重机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E5%85%92%C2%B7%E4%B8%B9%E5%A6%AE%E7%B5%B2</t>
   </si>
   <si>
-    <t>克萊兒·丹妮絲</t>
+    <t>克莱儿·丹妮丝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8C%B2%C2%B7%E9%9B%B7%E6%9B%BC</t>
   </si>
   <si>
-    <t>巴茲·雷曼</t>
+    <t>巴兹·雷曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%AF%86%E6%AD%90%E8%88%87%E8%8C%B1%E9%BA%97%E8%91%89</t>
   </si>
   <si>
-    <t>羅密歐與茱麗葉</t>
+    <t>罗密欧与茱丽叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B8%A9%E5%A6%AE%E4%B8%9D%C2%B7%E5%B8%95%E7%89%B9%E7%BD%97</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E8%8A%AC%C2%B7%E5%A4%9A%E7%88%BE%E5%A4%AB</t>
   </si>
   <si>
-    <t>斯蒂芬·多爾夫</t>
+    <t>斯蒂芬·多尔夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Matthew_McConaughey</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%80%83%E5%88%A9%C2%B7%E5%85%8B%E9%87%91</t>
   </si>
   <si>
-    <t>麥考利·克金</t>
+    <t>麦考利·克金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E8%B4%9D%E5%B0%94</t>
@@ -833,19 +833,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E8%88%87%E6%84%9F%E6%80%A7_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>理性與感性 (電影)</t>
+    <t>理性与感性 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E7%9F%B3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>滾石 (雜誌)</t>
+    <t>滚石 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E9%9D%A2%E4%BA%BA_(1998%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>鐵面人 (1998年電影)</t>
+    <t>铁面人 (1998年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E9%BB%91%E5%B8%AE</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E8%80%85</t>
   </si>
   <si>
-    <t>飛行者</t>
+    <t>飞行者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E9%97%B4%E8%A1%8C%E8%80%85</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E9%91%BD_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>血鑽 (電影)</t>
+    <t>血钻 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%97%E6%A2%A6%E7%A9%BA%E9%97%B4</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BA%A8%E5%B0%8F%E5%82%B3</t>
   </si>
   <si>
-    <t>大亨小傳</t>
+    <t>大亨小传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E4%B9%8B%E7%8B%BC</t>
@@ -905,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%C2%B7%E6%B4%9B</t>
   </si>
   <si>
-    <t>羅伯·洛</t>
+    <t>罗伯·洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E9%81%94%E6%96%87%E6%B3%A2%E7%89%B9</t>
   </si>
   <si>
-    <t>傑克·達文波特</t>
+    <t>杰克·达文波特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AE%E8%8A%AD%C2%B7%E9%BA%A6%E5%85%8B%E4%BC%8A%E6%B3%B0</t>
@@ -923,37 +923,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%9C%96</t>
   </si>
   <si>
-    <t>藍圖</t>
+    <t>蓝图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%90%A8%E9%87%8C%E5%A4%9A</t>
   </si>
   <si>
-    <t>罗萨里多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%8D%A1%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>詹姆斯·卡麥隆</t>
+    <t>詹姆斯·卡麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>開普敦</t>
+    <t>开普敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E8%A3%BD%E4%BD%9C</t>
   </si>
   <si>
-    <t>後期製作</t>
+    <t>后期制作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B7%E9%A2%A8</t>
   </si>
   <si>
-    <t>傷風</t>
+    <t>伤风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E6%80%A7%E6%84%9F%E5%86%92</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1</t>
   </si>
   <si>
-    <t>奧斯卡</t>
+    <t>奥斯卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%88%E7%BB%93%E8%80%852%EF%BC%9A%E5%AE%A1%E5%88%A4%E6%97%A5</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E6%B3%95</t>
@@ -1013,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%B4%85%E8%8E%93%E6%A8%82%E9%9A%8A</t>
   </si>
   <si>
-    <t>小紅莓樂隊</t>
+    <t>小红莓乐队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%BD%A22</t>
   </si>
   <si>
-    <t>異形2</t>
+    <t>异形2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%87%E6%95%A2%E7%9A%84%E5%BF%83</t>
@@ -1061,25 +1058,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1</t>
   </si>
   <si>
-    <t>奥斯卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>格林美獎</t>
+    <t>格林美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A3%E6%9C%AC%E5%94%B1%E7%89%87</t>
   </si>
   <si>
-    <t>樣本唱片</t>
+    <t>样本唱片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Sony</t>
@@ -1097,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%98%AD%E7%B4%8D%E5%BE%B7%E5%90%88%E5%94%B1%E5%9C%98</t>
   </si>
   <si>
-    <t>克蘭納德合唱團</t>
+    <t>克兰纳德合唱团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%9B%85</t>
@@ -1121,25 +1115,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%BE%8E%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>聯美電影公司</t>
+    <t>联美电影公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E8%97%9D</t>
   </si>
   <si>
-    <t>綜藝</t>
+    <t>综艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E6%9D%8E%E6%B4%BB</t>
@@ -1163,13 +1157,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%97%A5%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>明日帝國</t>
+    <t>明日帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E4%BA%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>情人節</t>
+    <t>情人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%8F%E7%BD%97%E7%BA%AA%E5%85%AC%E5%9B%AD</t>
@@ -1253,19 +1247,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E9%8C%84%E7%89%87</t>
   </si>
   <si>
-    <t>紀錄片</t>
+    <t>纪录片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>紅色</t>
+    <t>红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2</t>
   </si>
   <si>
-    <t>藍色</t>
+    <t>蓝色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%88%90%E5%99%A8</t>
@@ -1283,9 +1277,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
   </si>
   <si>
-    <t>纽约时报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
   </si>
   <si>
@@ -1301,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E5%9B%9B%E9%83%A8%E6%9B%B2%EF%BC%9A%E6%9B%99%E5%85%89%E4%B9%8D%E7%8F%BE</t>
   </si>
   <si>
-    <t>星際大戰四部曲：曙光乍現</t>
+    <t>星际大战四部曲：曙光乍现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%8F%E5%84%B8%E7%B4%80%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>侏儸紀公園</t>
+    <t>侏㑩纪公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97%E7%8E%8B%E5%AD%90</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E8%99%9B</t>
   </si>
   <si>
-    <t>賓虛</t>
+    <t>宾虚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E8%89%B3%E5%90%8E_(%E7%94%B5%E5%BD%B1)</t>
@@ -1361,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E7%95%AA%E8%8C%84</t>
   </si>
   <si>
-    <t>爛番茄</t>
+    <t>烂番茄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Metacritic</t>
@@ -1373,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%E5%A5%96</t>
@@ -1397,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%E6%B3%A2%E7%89%B9%EF%BC%9A%E9%98%BF%E8%8C%B2%E5%8D%A1%E7%8F%AD%E7%9A%84%E9%80%83%E7%8A%AF_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>哈利波特：阿茲卡班的逃犯 (電影)</t>
+    <t>哈利波特：阿兹卡班的逃犯 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%B8%95%E5%85%8B%E6%96%AF%E9%A1%BF</t>
@@ -1409,19 +1400,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%BD%B1%E8%A9%95%E4%BA%BA%E5%8D%94%E6%9C%83%E7%8D%8E</t>
   </si>
   <si>
-    <t>洛杉磯影評人協會獎</t>
+    <t>洛杉矶影评人协会奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BD%B1%E8%A9%95%E4%BA%BA%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國家影評人協會</t>
+    <t>国家影评人协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%BD%B1%E8%A9%95%E4%BA%BA%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>紐約影評人協會</t>
+    <t>纽约影评人协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E8%92%82%E6%96%AF%C2%B7%E6%B1%89%E6%A3%AE</t>
@@ -1433,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E9%9D%A2%E7%89%B9%E8%AD%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>鐵面特警隊</t>
+    <t>铁面特警队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E7%8E%AF%E7%8E%8B%EF%BC%9A%E7%8E%8B%E8%80%85%E5%BD%92%E6%9D%A5</t>
@@ -1451,19 +1442,19 @@
     <t>https://zh.wikipedia.org/wiki/AFI%E7%99%BE%E5%B9%B4%E7%99%BE%E5%A4%A7%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>AFI百年百大電影</t>
+    <t>AFI百年百大电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AFI%E7%99%BE%E5%B9%B4%E7%99%BE%E5%A4%A7%E9%A9%9A%E6%82%9A%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>AFI百年百大驚悚電影</t>
+    <t>AFI百年百大惊悚电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AFI%E7%99%BE%E5%B9%B4%E7%99%BE%E5%A4%A7%E6%84%9B%E6%83%85%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>AFI百年百大愛情電影</t>
+    <t>AFI百年百大爱情电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AFI%E7%99%BE%E5%B9%B4%E7%99%BE%E5%A4%A7%E7%94%B5%E5%BD%B1%E5%8F%B0%E8%AF%8D</t>
@@ -1481,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E5%BD%B1%E9%87%91%E5%83%8F%E7%8D%8E</t>
   </si>
   <si>
-    <t>日本電影金像獎</t>
+    <t>日本电影金像奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E5%BD%B1%E7%89%87%E5%A5%96</t>
@@ -1505,9 +1496,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
   </si>
   <si>
@@ -1553,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%9C%BC%E9%9B%BB%E5%BD%B1%E7%B6%B2</t>
   </si>
   <si>
-    <t>開眼電影網</t>
+    <t>开眼电影网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E7%93%A3</t>
@@ -1571,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%80%AB%E6%83%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>英倫情人</t>
+    <t>英伦情人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E7%BF%81%E6%83%85%E5%8F%B2</t>
@@ -1583,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%90%83%E7%8D%8E%E6%9C%80%E4%BD%B3%E6%88%B2%E5%8A%87%E9%A1%9E%E5%BD%B1%E7%89%87</t>
   </si>
   <si>
-    <t>金球獎最佳戲劇類影片</t>
+    <t>金球奖最佳戏剧类影片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%8D%A1%E6%A2%85%E4%BC%A6</t>
@@ -1619,13 +1607,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%87%A1%E9%81%942</t>
   </si>
   <si>
-    <t>阿凡達2</t>
+    <t>阿凡达2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%87%A1%E9%81%943</t>
   </si>
   <si>
-    <t>阿凡達3</t>
+    <t>阿凡达3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E8%BF%94%E4%BF%BE%E6%96%AF%E9%BA%A6%E6%88%98%E8%88%B0</t>
@@ -1655,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8E%89%E5%A1%94%EF%BC%9A%E6%88%B0%E9%AC%A5%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>艾莉塔：戰鬥天使</t>
+    <t>艾莉塔：战斗天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E6%B5%B7%E6%8C%91%E6%88%98%E8%80%85%E5%8F%B7</t>
@@ -1667,25 +1655,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%88%E7%81%AB%E6%88%B0%E8%BB%8A_(1981%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>烈火戰車 (1981年電影)</t>
+    <t>烈火战车 (1981年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%9C%B0%E5%82%B3</t>
   </si>
   <si>
-    <t>甘地傳</t>
+    <t>甘地传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%AF%86%E9%97%9C%E4%BF%82_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>親密關係 (電影)</t>
+    <t>亲密关系 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%AA%E8%BF%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>阿瑪迪斯</t>
+    <t>阿玛迪斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B0%E5%87%BA%E9%9D%9E%E6%B4%B2</t>
@@ -1721,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E7%8B%BC%E5%85%B1%E8%88%9E</t>
   </si>
   <si>
-    <t>與狼共舞</t>
+    <t>与狼共舞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E9%BB%98%E7%9A%84%E7%BE%94%E7%BE%8A</t>
@@ -1733,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E6%83%85%E8%93%8B%E5%A4%A9</t>
   </si>
   <si>
-    <t>豪情蓋天</t>
+    <t>豪情盖天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%BE%B7%E5%8B%92%E7%9A%84%E5%90%8D%E5%8D%95</t>
@@ -1751,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%BA%97%E6%9C%89%E7%BD%AA</t>
   </si>
   <si>
-    <t>美麗有罪</t>
+    <t>美丽有罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E6%96%97%E5%A3%AB_(%E7%94%B5%E5%BD%B1)</t>
@@ -1763,19 +1751,19 @@
     <t>https://zh.wikipedia.org/wiki/MTV%E5%BD%B1%E8%A6%96%E5%A4%A7%E7%8D%8E</t>
   </si>
   <si>
-    <t>MTV影視大獎</t>
+    <t>MTV影视大奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MTV%E5%BD%B1%E8%A6%96%E5%A4%A7%E7%8D%8E%E6%9C%80%E4%BD%B3%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>MTV影視大獎最佳電影</t>
+    <t>MTV影视大奖最佳电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E6%B5%B7%E9%9B%84%E9%A2%A8</t>
   </si>
   <si>
-    <t>義海雄風</t>
+    <t>义海雄风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E4%BF%97%E5%B0%8F%E8%AF%B4</t>
@@ -1787,19 +1775,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%AE%97%E7%BD%AA_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>七宗罪 (電影)</t>
+    <t>七宗罪 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%9A%E8%81%B2%E5%B0%96%E5%8F%AB</t>
   </si>
   <si>
-    <t>驚聲尖叫</t>
+    <t>惊声尖叫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%BF%B7%E7%B4%A2%E7%91%AA%E8%8E%89</t>
   </si>
   <si>
-    <t>情迷索瑪莉</t>
+    <t>情迷索玛莉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%AE%A2%E5%B8%9D%E5%9B%BD</t>
@@ -1811,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E9%A9%95%E9%9B%84</t>
   </si>
   <si>
-    <t>帝國驕雄</t>
+    <t>帝国骄雄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E7%8E%AF%E7%8E%8B%EF%BC%9A%E6%8A%A4%E6%88%92%E4%BD%BF%E8%80%85</t>
@@ -1829,13 +1817,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E7%82%B8%E8%97%A5</t>
   </si>
   <si>
-    <t>拿破崙炸藥</t>
+    <t>拿破崙炸药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%92%E7%89%8C%E4%BC%B4%E9%83%8E%E7%94%9F%E6%93%92%E5%A7%8A%E5%A6%B9%E5%9C%98</t>
   </si>
   <si>
-    <t>冒牌伴郎生擒姊妹團</t>
+    <t>冒牌伴郎生擒姊妹团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7%E7%9B%972%EF%BC%9A%E8%81%9A%E9%AD%82%E6%A3%BA</t>
@@ -1847,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%BD%A2%E9%87%91%E5%89%9B_(2007%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>變形金剛 (2007年電影)</t>
+    <t>变形金刚 (2007年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%AE%E5%85%89%E4%B9%8B%E5%9F%8E%EF%BC%9A%E7%84%A1%E6%87%BC%E7%9A%84%E6%84%9B</t>
   </si>
   <si>
-    <t>暮光之城：無懼的愛</t>
+    <t>暮光之城：无惧的爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%AE%E5%85%89%E4%B9%8B%E5%9F%8E2%EF%BC%9A%E6%96%B0%E6%9C%88</t>
@@ -1865,49 +1853,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%AE%E5%85%89%E4%B9%8B%E5%9F%8E3%EF%BC%9A%E8%9D%95</t>
   </si>
   <si>
-    <t>暮光之城3：蝕</t>
+    <t>暮光之城3：蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%AE%E5%85%89%E4%B9%8B%E5%9F%8E4%EF%BC%9A%E7%A0%B4%E6%9B%89</t>
   </si>
   <si>
-    <t>暮光之城4：破曉</t>
+    <t>暮光之城4：破晓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E4%BB%87%E8%80%85%E8%81%AF%E7%9B%9F_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>復仇者聯盟 (電影)</t>
+    <t>复仇者联盟 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%A2%E9%A4%93%E9%81%8A%E6%88%B2%EF%BC%9A%E6%98%9F%E7%81%AB%E7%87%8E%E5%8E%9F_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>飢餓遊戲：星火燎原 (電影)</t>
+    <t>饥饿游戏：星火燎原 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E4%B8%AD%E7%9A%84%E7%BE%8E%E5%A5%BD%E7%BC%BA%E6%86%BE_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>生命中的美好缺憾 (電影)</t>
+    <t>生命中的美好缺憾 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%B0%EF%BC%9A%E5%8E%9F%E5%8A%9B%E8%A6%BA%E9%86%92</t>
   </si>
   <si>
-    <t>星球大戰：原力覺醒</t>
+    <t>星球大战：原力觉醒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A5%B3%E8%88%87%E9%87%8E%E7%8D%B8_(2017%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>美女與野獸 (2017年電影)</t>
+    <t>美女与野兽 (2017年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E7%8D%8E</t>
   </si>
   <si>
-    <t>帝國獎</t>
+    <t>帝国奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Empire_Award_for_Best_Film</t>
@@ -1937,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%AC%BC%E8%AA%8D%E8%AD%89%EF%BC%9A%E7%A5%9E%E9%AC%BC%E7%96%91%E9%9B%B2</t>
   </si>
   <si>
-    <t>神鬼認證：神鬼疑雲</t>
+    <t>神鬼认证：神鬼疑云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%88%9A_(2005%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
@@ -1955,19 +1943,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%AC%BC%E8%AA%8D%E8%AD%89%EF%BC%9A%E6%9C%80%E5%BE%8C%E9%80%9A%E7%89%92</t>
   </si>
   <si>
-    <t>神鬼認證：最後通牒</t>
+    <t>神鬼认证：最后通牒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%9A%97%E9%A8%8E%E5%A3%AB</t>
   </si>
   <si>
-    <t>黑暗騎士</t>
+    <t>黑暗骑士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%9D%A2%E5%95%9F%E5%8B%95</t>
   </si>
   <si>
-    <t>全面啟動</t>
+    <t>全面启动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E6%B3%A2%E7%89%B9%E4%B8%8E%E6%AD%BB%E4%BA%A1%E5%9C%A3%E5%99%A8%EF%BC%88%E4%B8%8B%EF%BC%89</t>
@@ -1991,19 +1979,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>星際效應</t>
+    <t>星际效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%AC%BC%E7%8D%B5%E4%BA%BA</t>
   </si>
   <si>
-    <t>神鬼獵人</t>
+    <t>神鬼猎人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E5%A4%96%E5%82%B3%EF%BC%9A%E4%BF%A0%E7%9B%9C%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>星際大戰外傳：俠盜一號</t>
+    <t>星际大战外传：侠盗一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%90%83%E5%A5%96%E6%9C%80%E4%BD%B3%E5%8E%9F%E5%88%9B%E9%85%8D%E4%B9%90%E5%A5%96</t>
@@ -2021,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%90%BD%E5%A4%A7%E9%81%93_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>日落大道 (電影)</t>
+    <t>日落大道 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%8C%A8%C2%B7%E6%B2%83%E5%85%8B%E6%96%AF%E6%9B%BC</t>
@@ -2045,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%AA%E5%B1%8B%E7%96%91%E9%9B%B2</t>
   </si>
   <si>
-    <t>怪屋疑雲</t>
+    <t>怪屋疑云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E9%BB%98%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%E5%9D%A6</t>
@@ -2069,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%96%AF%C2%B7%E8%B3%88%E7%88%BE</t>
   </si>
   <si>
-    <t>莫里斯·賈爾</t>
+    <t>莫里斯·贾尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%85%8B%E5%A3%AB%C2%B7%E8%AF%BA%E6%96%AF</t>
@@ -2093,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%9A%84%E6%95%85%E4%BA%8B</t>
   </si>
   <si>
-    <t>愛的故事</t>
+    <t>爱的故事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%90%A8%E5%85%8B%C2%B7%E6%B5%B7%E8%80%B6%E6%96%AF</t>
@@ -2105,13 +2093,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>教父 (電影)</t>
+    <t>教父 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E8%AB%BE%C2%B7%E7%BE%85%E5%A1%94</t>
   </si>
   <si>
-    <t>尼諾·羅塔</t>
+    <t>尼诺·罗塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%8E%8B%E5%AD%90_(1974%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
@@ -2123,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%99%BD%E9%AF%8A_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>大白鯊 (電影)</t>
+    <t>大白鲨 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
@@ -2135,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%88%E5%A4%9C%E5%BF%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>午夜快車</t>
+    <t>午夜快车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E5%90%89%E5%A5%A5%C2%B7%E8%8E%AB%E7%BD%97%E5%BE%B7%E5%B0%94</t>
@@ -2189,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%82%E6%9C%AC%E9%BE%8D%E4%B8%80</t>
   </si>
   <si>
-    <t>坂本龍一</t>
+    <t>坂本龙一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%AA</t>
@@ -2225,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%88%87%E5%9C%B0_(%E7%BE%8E%E5%9C%8B%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>天與地 (美國電影)</t>
+    <t>天与地 (美国电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%A4%9A%E9%83%8E</t>
@@ -2243,7 +2231,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E5%AD%A3%E9%BB%98</t>
   </si>
   <si>
-    <t>漢斯·季默</t>
+    <t>汉斯·季默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E4%B8%AD%E6%BC%AB%E6%AD%A5</t>
@@ -2261,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E9%96%80%E7%9A%84%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>楚門的世界</t>
+    <t>楚门的世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E6%A0%BC%E6%8B%89%E6%96%AF</t>
@@ -2273,19 +2261,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%B8%8A%E9%8B%BC%E7%90%B4%E5%B8%AB</t>
   </si>
   <si>
-    <t>海上鋼琴師</t>
+    <t>海上钢琴师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%89%E8%96%A9%C2%B7%E5%82%91%E5%8B%92%E5%BE%B7</t>
   </si>
   <si>
-    <t>莉薩·傑勒德</t>
+    <t>莉萨·杰勒德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E9%99%B7%E7%B4%85%E7%A3%A8%E5%9D%8A</t>
   </si>
   <si>
-    <t>情陷紅磨坊</t>
+    <t>情陷红磨坊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9B%B7%E6%A0%BC%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -2297,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%AE%E7%81%91%E7%83%88%E6%84%9B</t>
   </si>
   <si>
-    <t>揮灑烈愛</t>
+    <t>挥洒烈爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%95%A5%E7%89%B9%C2%B7%E9%AB%98%E7%99%BB%E7%B4%A2</t>
@@ -2315,13 +2303,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%A1%8C%E8%80%85</t>
   </si>
   <si>
-    <t>飞行者</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E4%BC%8E%E5%9B%9E%E6%86%B6%E9%8C%84</t>
   </si>
   <si>
-    <t>藝伎回憶錄</t>
+    <t>艺伎回忆录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E7%BA%B1_(%E7%94%B5%E5%BD%B1)</t>
@@ -2339,19 +2324,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>贖罪 (電影)</t>
+    <t>赎罪 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%88%A9%E6%AD%90%C2%B7%E9%A6%AC%E9%87%8C%E5%AE%89%E5%88%A9</t>
   </si>
   <si>
-    <t>達利歐·馬里安利</t>
+    <t>达利欧·马里安利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E6%B0%91%E7%99%BE%E8%90%AC%E5%AF%8C%E7%BF%81</t>
   </si>
   <si>
-    <t>貧民百萬富翁</t>
+    <t>贫民百万富翁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A%C2%B7R%C2%B7%E6%8B%89%E6%9B%BC</t>
@@ -2375,13 +2360,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E7%B6%B2%E6%88%B0</t>
   </si>
   <si>
-    <t>社群網戰</t>
+    <t>社群网战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E7%89%B9%C2%B7%E9%9B%B7%E6%BE%A4%E8%AB%BE</t>
   </si>
   <si>
-    <t>特倫特·雷澤諾</t>
+    <t>特伦特·雷泽诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF%E5%AE%B6_(%E7%94%B5%E5%BD%B1)</t>
@@ -2393,13 +2378,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4PI%E7%9A%84%E5%A5%87%E5%B9%BB%E6%BC%82%E6%B5%81_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>少年PI的奇幻漂流 (電影)</t>
+    <t>少年PI的奇幻漂流 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E5%94%90%E7%B4%8D</t>
   </si>
   <si>
-    <t>麥可·唐納</t>
+    <t>麦可·唐纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%88%87%E5%B0%BD%E5%A4%B1</t>
@@ -2411,13 +2396,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%9A%84%E8%90%AC%E7%89%A9%E8%AB%96</t>
   </si>
   <si>
-    <t>愛的萬物論</t>
+    <t>爱的万物论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E6%83%A1%E4%BA%BA</t>
   </si>
   <si>
-    <t>八惡人</t>
+    <t>八恶人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%B9%90%E4%B9%8B%E5%9F%8E</t>
@@ -2435,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2459,7 +2444,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -7459,7 +7444,7 @@
         <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7485,10 +7470,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>304</v>
+      </c>
+      <c r="F161" t="s">
         <v>305</v>
-      </c>
-      <c r="F161" t="s">
-        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>6</v>
@@ -7514,10 +7499,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>306</v>
+      </c>
+      <c r="F162" t="s">
         <v>307</v>
-      </c>
-      <c r="F162" t="s">
-        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7543,10 +7528,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>308</v>
+      </c>
+      <c r="F163" t="s">
         <v>309</v>
-      </c>
-      <c r="F163" t="s">
-        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7572,10 +7557,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>310</v>
+      </c>
+      <c r="F164" t="s">
         <v>311</v>
-      </c>
-      <c r="F164" t="s">
-        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7601,10 +7586,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>312</v>
+      </c>
+      <c r="F165" t="s">
         <v>313</v>
-      </c>
-      <c r="F165" t="s">
-        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7630,10 +7615,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>314</v>
+      </c>
+      <c r="F166" t="s">
         <v>315</v>
-      </c>
-      <c r="F166" t="s">
-        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>13</v>
@@ -7659,10 +7644,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>316</v>
+      </c>
+      <c r="F167" t="s">
         <v>317</v>
-      </c>
-      <c r="F167" t="s">
-        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7688,10 +7673,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>318</v>
+      </c>
+      <c r="F168" t="s">
         <v>319</v>
-      </c>
-      <c r="F168" t="s">
-        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7717,10 +7702,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>320</v>
+      </c>
+      <c r="F169" t="s">
         <v>321</v>
-      </c>
-      <c r="F169" t="s">
-        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7746,10 +7731,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>322</v>
+      </c>
+      <c r="F170" t="s">
         <v>323</v>
-      </c>
-      <c r="F170" t="s">
-        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7775,10 +7760,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>324</v>
+      </c>
+      <c r="F171" t="s">
         <v>325</v>
-      </c>
-      <c r="F171" t="s">
-        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7804,10 +7789,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>326</v>
+      </c>
+      <c r="F172" t="s">
         <v>327</v>
-      </c>
-      <c r="F172" t="s">
-        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7833,10 +7818,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>328</v>
+      </c>
+      <c r="F173" t="s">
         <v>329</v>
-      </c>
-      <c r="F173" t="s">
-        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -7862,10 +7847,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>330</v>
+      </c>
+      <c r="F174" t="s">
         <v>331</v>
-      </c>
-      <c r="F174" t="s">
-        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7920,10 +7905,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>332</v>
+      </c>
+      <c r="F176" t="s">
         <v>333</v>
-      </c>
-      <c r="F176" t="s">
-        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7949,10 +7934,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>334</v>
+      </c>
+      <c r="F177" t="s">
         <v>335</v>
-      </c>
-      <c r="F177" t="s">
-        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7978,10 +7963,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>336</v>
+      </c>
+      <c r="F178" t="s">
         <v>337</v>
-      </c>
-      <c r="F178" t="s">
-        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8007,10 +7992,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>338</v>
+      </c>
+      <c r="F179" t="s">
         <v>339</v>
-      </c>
-      <c r="F179" t="s">
-        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8036,10 +8021,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>340</v>
+      </c>
+      <c r="F180" t="s">
         <v>341</v>
-      </c>
-      <c r="F180" t="s">
-        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>5</v>
@@ -8065,10 +8050,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>342</v>
+      </c>
+      <c r="F181" t="s">
         <v>343</v>
-      </c>
-      <c r="F181" t="s">
-        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8094,10 +8079,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>344</v>
+      </c>
+      <c r="F182" t="s">
         <v>345</v>
-      </c>
-      <c r="F182" t="s">
-        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8123,10 +8108,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="G183" t="n">
         <v>18</v>
@@ -8152,10 +8137,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8181,10 +8166,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8210,10 +8195,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8239,10 +8224,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8268,10 +8253,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8297,10 +8282,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8326,10 +8311,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8384,10 +8369,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>9</v>
@@ -8413,10 +8398,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8442,10 +8427,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8471,10 +8456,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8500,10 +8485,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8529,10 +8514,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8558,10 +8543,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -8587,10 +8572,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>10</v>
@@ -8616,10 +8601,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8645,10 +8630,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8674,10 +8659,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8703,10 +8688,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8732,10 +8717,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8761,10 +8746,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8790,10 +8775,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8819,10 +8804,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8848,10 +8833,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8877,10 +8862,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8906,10 +8891,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8935,10 +8920,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8964,10 +8949,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>6</v>
@@ -8993,10 +8978,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9022,10 +9007,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9051,10 +9036,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9080,10 +9065,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9167,10 +9152,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>5</v>
@@ -9196,10 +9181,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -9225,10 +9210,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9254,10 +9239,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9283,10 +9268,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9312,10 +9297,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9341,10 +9326,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9370,10 +9355,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9399,10 +9384,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9428,10 +9413,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9457,10 +9442,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9486,10 +9471,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9544,10 +9529,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9602,10 +9587,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9631,10 +9616,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9660,10 +9645,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9689,10 +9674,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9718,10 +9703,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9747,10 +9732,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9776,10 +9761,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9805,10 +9790,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9863,10 +9848,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9892,10 +9877,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9921,10 +9906,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9950,10 +9935,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9979,10 +9964,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10008,10 +9993,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10037,10 +10022,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10066,10 +10051,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10095,10 +10080,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10153,10 +10138,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F253" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10182,10 +10167,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10211,10 +10196,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F255" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10240,10 +10225,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10269,10 +10254,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10298,10 +10283,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10327,10 +10312,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10356,10 +10341,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10414,10 +10399,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F262" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G262" t="n">
         <v>7</v>
@@ -10443,10 +10428,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F263" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G263" t="n">
         <v>4</v>
@@ -10472,10 +10457,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F264" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G264" t="n">
         <v>9</v>
@@ -10501,10 +10486,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F265" t="s">
-        <v>496</v>
+        <v>88</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10559,10 +10544,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10588,10 +10573,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10617,10 +10602,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10646,10 +10631,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10675,10 +10660,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10704,10 +10689,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10733,10 +10718,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10762,10 +10747,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10791,10 +10776,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10820,10 +10805,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10849,10 +10834,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10878,10 +10863,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F278" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10907,10 +10892,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10936,10 +10921,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10965,10 +10950,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10994,10 +10979,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G282" t="n">
         <v>9</v>
@@ -11023,10 +11008,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -11052,10 +11037,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -11081,10 +11066,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>316</v>
+      </c>
+      <c r="F285" t="s">
         <v>317</v>
-      </c>
-      <c r="F285" t="s">
-        <v>318</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11110,10 +11095,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11139,10 +11124,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11168,10 +11153,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F288" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11197,10 +11182,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11226,10 +11211,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F290" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11255,10 +11240,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11284,10 +11269,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11313,10 +11298,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11342,10 +11327,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11371,10 +11356,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F295" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11400,10 +11385,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F296" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11429,10 +11414,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F297" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11458,10 +11443,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F298" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11487,10 +11472,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F299" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11516,10 +11501,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11545,10 +11530,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11574,10 +11559,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11603,10 +11588,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11632,10 +11617,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11661,10 +11646,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11690,10 +11675,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11719,10 +11704,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11748,10 +11733,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11777,10 +11762,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11806,10 +11791,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F310" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11835,10 +11820,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F311" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11864,10 +11849,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F312" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -11893,10 +11878,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F313" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11922,10 +11907,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F314" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11951,10 +11936,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F315" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11980,10 +11965,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F316" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12009,10 +11994,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F317" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12038,10 +12023,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12067,10 +12052,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12096,10 +12081,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F320" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12125,10 +12110,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F321" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12154,10 +12139,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12183,10 +12168,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F323" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12212,10 +12197,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F324" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -12241,10 +12226,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F325" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12270,10 +12255,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F326" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12299,10 +12284,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F327" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12328,10 +12313,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F328" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12357,10 +12342,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F329" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12386,10 +12371,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F330" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12415,10 +12400,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F331" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12444,10 +12429,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F332" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12473,10 +12458,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F333" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12502,10 +12487,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F334" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12531,10 +12516,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F335" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12560,10 +12545,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F336" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12589,10 +12574,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F337" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12618,10 +12603,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F338" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12647,10 +12632,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F339" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12676,10 +12661,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F340" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G340" t="n">
         <v>7</v>
@@ -12705,10 +12690,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F341" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12734,10 +12719,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F342" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12763,10 +12748,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F343" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12792,10 +12777,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F344" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12821,10 +12806,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F345" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12850,10 +12835,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F346" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12879,10 +12864,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F347" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12908,10 +12893,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F348" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12937,10 +12922,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F349" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12966,10 +12951,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F350" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12995,10 +12980,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13024,10 +13009,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13053,10 +13038,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F353" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13082,10 +13067,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F354" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13111,10 +13096,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F355" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13140,10 +13125,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F356" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13169,10 +13154,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F357" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13198,10 +13183,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F358" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13227,10 +13212,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F359" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13256,10 +13241,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F360" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G360" t="n">
         <v>4</v>
@@ -13285,10 +13270,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F361" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13314,10 +13299,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F362" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13343,10 +13328,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F363" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13372,10 +13357,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F364" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13401,10 +13386,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F365" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G365" t="n">
         <v>4</v>
@@ -13430,10 +13415,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F366" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13459,10 +13444,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F367" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13488,10 +13473,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F368" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13517,10 +13502,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F369" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G369" t="n">
         <v>6</v>
@@ -13546,10 +13531,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F370" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13575,10 +13560,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F371" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13604,10 +13589,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F372" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13633,10 +13618,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F373" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13662,10 +13647,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F374" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13691,10 +13676,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F375" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G375" t="n">
         <v>4</v>
@@ -13720,10 +13705,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F376" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
@@ -13749,10 +13734,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F377" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13778,10 +13763,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F378" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13807,10 +13792,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F379" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13836,10 +13821,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F380" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13865,10 +13850,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F381" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13894,10 +13879,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F382" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13923,10 +13908,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F383" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13952,10 +13937,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F384" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13981,10 +13966,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F385" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -14010,10 +13995,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F386" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14039,10 +14024,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F387" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14068,10 +14053,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F388" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14097,10 +14082,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F389" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G389" t="n">
         <v>3</v>
@@ -14126,10 +14111,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F390" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14155,10 +14140,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F391" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14184,10 +14169,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F392" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14213,10 +14198,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F393" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14242,10 +14227,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F394" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14271,10 +14256,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F395" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14300,10 +14285,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F396" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14329,10 +14314,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F397" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14358,10 +14343,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F398" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14387,10 +14372,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F399" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14416,10 +14401,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F400" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14445,10 +14430,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F401" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14474,10 +14459,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F402" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14503,10 +14488,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F403" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14532,10 +14517,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F404" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14561,10 +14546,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F405" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14590,10 +14575,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F406" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14619,10 +14604,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F407" t="s">
-        <v>766</v>
+        <v>282</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14648,10 +14633,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F408" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14677,10 +14662,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F409" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14706,10 +14691,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F410" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14735,10 +14720,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F411" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14764,10 +14749,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F412" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14793,10 +14778,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F413" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14822,10 +14807,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F414" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14851,10 +14836,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F415" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14880,10 +14865,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F416" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14909,10 +14894,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F417" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14938,10 +14923,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F418" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14967,10 +14952,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F419" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14996,10 +14981,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F420" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15025,10 +15010,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F421" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15054,10 +15039,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F422" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15083,10 +15068,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F423" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15112,10 +15097,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F424" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15141,10 +15126,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F425" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15170,10 +15155,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F426" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15199,10 +15184,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F427" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G427" t="n">
         <v>3</v>
@@ -15228,10 +15213,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F428" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15257,10 +15242,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F429" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15286,10 +15271,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F430" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15315,10 +15300,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F431" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15344,10 +15329,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F432" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15373,10 +15358,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F433" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15402,10 +15387,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F434" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
